--- a/currentWeek.xlsx
+++ b/currentWeek.xlsx
@@ -447,7 +447,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
     </row>

--- a/currentWeek.xlsx
+++ b/currentWeek.xlsx
@@ -447,7 +447,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
     </row>
